--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBC77D-C6B3-0A48-BD5C-593A89438C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB51CC-69EA-784D-9A52-EA09BFC329FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3254,7 +3254,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3343,10 +3343,10 @@
       <c r="F2" s="21">
         <v>40</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="21">
         <v>49</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="21">
         <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -3375,8 +3375,8 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="7"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -3404,10 +3404,10 @@
       <c r="F4">
         <v>120</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="21">
         <v>33</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="21">
         <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -3436,6 +3436,8 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -3457,10 +3459,10 @@
       <c r="F6">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="21">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="21">
         <v>30</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -3489,6 +3491,8 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3510,10 +3514,10 @@
       <c r="F8">
         <v>35</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="21">
         <v>35</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="21">
         <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -3542,6 +3546,8 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3563,10 +3569,10 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="21">
         <v>24</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="21">
         <v>45</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -3595,8 +3601,8 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -3618,10 +3624,10 @@
       <c r="F12">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="21">
         <v>29</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="21">
         <v>55</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -3650,6 +3656,8 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3671,10 +3679,10 @@
       <c r="F14">
         <v>60</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="21">
         <v>33</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="21">
         <v>50</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -3703,6 +3711,8 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="7"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -3728,10 +3738,10 @@
       <c r="F16">
         <v>55</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="21">
         <v>48</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="21">
         <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -3760,6 +3770,8 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3781,10 +3793,10 @@
       <c r="F18">
         <v>45</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="21">
         <v>54</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="21">
         <v>140</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -3813,6 +3825,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3834,10 +3848,10 @@
       <c r="F20">
         <v>60</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="21">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="21">
         <v>160</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -3925,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4014,10 +4028,10 @@
       <c r="F2" s="21">
         <v>30</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="21">
         <v>45</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="21">
         <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -4046,8 +4060,8 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -4074,10 +4088,10 @@
       <c r="F4">
         <v>60</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="21">
         <v>50</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="21">
         <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -4863,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5005,6 +5019,9 @@
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -5182,7 +5199,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB51CC-69EA-784D-9A52-EA09BFC329FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E779D-CFD4-E34B-BA97-8704D5FB1326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="265">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2353,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3253,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3939,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H4"/>
     </sheetView>
   </sheetViews>
@@ -4405,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4478,9 +4478,15 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
       <c r="F2" s="21"/>
       <c r="K2" s="18"/>
       <c r="L2" s="20"/>
@@ -4489,35 +4495,46 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="F3" s="21"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="H4" s="21"/>
-      <c r="L4" s="20"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
+      <c r="H5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4559,11 +4576,6 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -4579,6 +4591,11 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -4600,21 +4617,26 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4877,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E779D-CFD4-E34B-BA97-8704D5FB1326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDAFDEE-62AA-3142-A7CC-C8ABAE5CDB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="266">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -752,21 +752,9 @@
     <t>test_us_18_Siblings_should_not_marry</t>
   </si>
   <si>
-    <t>33-82</t>
-  </si>
-  <si>
-    <t>92-125</t>
-  </si>
-  <si>
     <t>Act Size</t>
   </si>
   <si>
-    <t>178-223</t>
-  </si>
-  <si>
-    <t>234-284</t>
-  </si>
-  <si>
     <t>us03_birth_before_death</t>
   </si>
   <si>
@@ -794,12 +782,6 @@
     <t>us_22_unique_ids</t>
   </si>
   <si>
-    <t>135-170</t>
-  </si>
-  <si>
-    <t>64-86</t>
-  </si>
-  <si>
     <t>test_us_22_unique_ids</t>
   </si>
   <si>
@@ -836,24 +818,6 @@
     <t>Merge conflicting branch</t>
   </si>
   <si>
-    <t>295-328</t>
-  </si>
-  <si>
-    <t>338-386</t>
-  </si>
-  <si>
-    <t>397-451</t>
-  </si>
-  <si>
-    <t>461-509</t>
-  </si>
-  <si>
-    <t>511-540</t>
-  </si>
-  <si>
-    <t>549-573</t>
-  </si>
-  <si>
     <t>93-99</t>
   </si>
   <si>
@@ -864,6 +828,45 @@
   </si>
   <si>
     <t>778-816</t>
+  </si>
+  <si>
+    <t>34-83</t>
+  </si>
+  <si>
+    <t>93-126</t>
+  </si>
+  <si>
+    <t>65-87</t>
+  </si>
+  <si>
+    <t>136-171</t>
+  </si>
+  <si>
+    <t>550-574</t>
+  </si>
+  <si>
+    <t>512-541</t>
+  </si>
+  <si>
+    <t>296-329</t>
+  </si>
+  <si>
+    <t>339-387</t>
+  </si>
+  <si>
+    <t>398-452</t>
+  </si>
+  <si>
+    <t>462-510</t>
+  </si>
+  <si>
+    <t>179-224</t>
+  </si>
+  <si>
+    <t>235-285</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3253,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3297,7 +3300,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>15</v>
@@ -3359,7 +3362,7 @@
         <v>207</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
@@ -3420,7 +3423,7 @@
         <v>208</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>209</v>
@@ -3469,22 +3472,22 @@
         <v>205</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3527,19 +3530,19 @@
         <v>206</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3585,7 +3588,7 @@
         <v>223</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O10" s="17" t="s">
         <v>209</v>
@@ -3594,7 +3597,7 @@
         <v>225</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -3640,7 +3643,7 @@
         <v>224</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>209</v>
@@ -3649,7 +3652,7 @@
         <v>226</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3692,19 +3695,19 @@
         <v>206</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3751,19 +3754,19 @@
         <v>206</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O16" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3806,19 +3809,19 @@
         <v>206</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3861,19 +3864,19 @@
         <v>206</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P20" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
@@ -3891,12 +3894,12 @@
     </row>
     <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
@@ -3906,12 +3909,12 @@
     </row>
     <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3939,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H4"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4044,7 +4047,7 @@
         <v>215</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
@@ -4104,7 +4107,7 @@
         <v>220</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>209</v>
@@ -4144,6 +4147,9 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
@@ -4174,6 +4180,9 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
+      <c r="I8" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
@@ -4203,6 +4212,9 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
+      <c r="I10" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
@@ -4232,6 +4244,9 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
+      <c r="I12" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -4261,6 +4276,9 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+      <c r="I14" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="O14" s="18"/>
@@ -4300,15 +4318,18 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4329,15 +4350,18 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>125</v>
       </c>
@@ -4358,26 +4382,29 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="I20" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4407,7 +4434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5221,7 +5248,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruval\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDAFDEE-62AA-3142-A7CC-C8ABAE5CDB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA82E2D-6609-43CB-BB41-61DDDECD19FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="274">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -867,6 +867,30 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>us15_fewer_than_15_siblings()</t>
+  </si>
+  <si>
+    <t>us20_aunts_and_uncles()</t>
+  </si>
+  <si>
+    <t>585-615</t>
+  </si>
+  <si>
+    <t>626-684</t>
+  </si>
+  <si>
+    <t>test_us15_fewer_than_15_siblings()</t>
+  </si>
+  <si>
+    <t>test_us20_aunts_and_uncles()</t>
+  </si>
+  <si>
+    <t>117-123</t>
+  </si>
+  <si>
+    <t>125-131</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1200,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42409</c:v>
@@ -1235,7 +1259,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2216,16 +2240,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2259,7 +2283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2276,7 +2300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2293,7 +2317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2310,7 +2334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2327,7 +2351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2356,20 +2380,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2420,7 +2444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2437,7 +2461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2488,7 +2512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2607,7 +2631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2624,7 +2648,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2671,11 +2695,11 @@
       <c r="D18" t="s">
         <v>183</v>
       </c>
-      <c r="E18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2688,11 +2712,11 @@
       <c r="D19" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2709,7 +2733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2740,7 +2764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2796,7 +2820,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2824,7 +2848,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2852,7 +2876,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2880,7 +2904,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2894,7 +2918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2908,7 +2932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2936,7 +2960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2950,7 +2974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2992,7 +3016,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3029,47 +3053,47 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -3092,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3106,7 +3130,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>32.680851063829785</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
@@ -3185,17 +3209,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42409</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42430</v>
       </c>
@@ -3260,27 +3284,27 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.81640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -3388,7 +3412,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -3435,7 +3459,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3443,7 +3467,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3498,7 +3522,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -3545,7 +3569,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3553,7 +3577,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
@@ -3600,7 +3624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3608,7 +3632,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3663,7 +3687,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>109</v>
       </c>
@@ -3710,7 +3734,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3722,7 +3746,7 @@
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3777,7 +3801,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3832,7 +3856,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -3879,40 +3903,40 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
@@ -3942,30 +3966,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.81640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4059,7 +4083,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4072,7 +4096,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4119,14 +4143,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4151,7 +4175,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4159,7 +4183,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4184,14 +4208,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -4216,14 +4240,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4248,14 +4272,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
@@ -4266,7 +4290,7 @@
         <v>183</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -4274,18 +4298,35 @@
       <c r="F14">
         <v>60</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="21">
+        <v>30</v>
+      </c>
+      <c r="H14" s="21">
+        <v>35</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K14" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4297,7 +4338,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -4308,7 +4349,7 @@
         <v>183</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>45</v>
@@ -4316,20 +4357,42 @@
       <c r="F16">
         <v>70</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="21">
+        <v>58</v>
+      </c>
+      <c r="H16" s="21">
+        <v>45</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K16" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4354,14 +4417,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>125</v>
       </c>
@@ -4386,25 +4449,25 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4426,7 +4489,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4438,26 +4501,26 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.81640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4522,7 +4585,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="F3" s="21"/>
       <c r="K3" s="18"/>
@@ -4532,7 +4595,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4549,7 +4612,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4559,52 +4622,52 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4614,7 +4677,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4624,45 +4687,45 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -4695,26 +4758,26 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.81640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4761,7 +4824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4773,7 +4836,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4784,7 +4847,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4794,52 +4857,52 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4849,7 +4912,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4859,45 +4922,45 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4930,13 +4993,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -4950,7 +5013,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +5024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -4975,7 +5038,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -4986,7 +5049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5000,7 +5063,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5011,7 +5074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5025,7 +5088,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5036,7 +5099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5047,7 +5110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5058,7 +5121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5072,7 +5135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5083,7 +5146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5094,7 +5157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5105,7 +5168,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5116,7 +5179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5127,7 +5190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5138,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5149,7 +5212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5160,7 +5223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5171,7 +5234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5182,7 +5245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5193,7 +5256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5204,7 +5267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5215,7 +5278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5226,7 +5289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5237,7 +5300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5248,7 +5311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5259,7 +5322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5270,7 +5333,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -5281,7 +5344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5292,7 +5355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5303,7 +5366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -5314,7 +5377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -5325,7 +5388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -5336,7 +5399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -5347,7 +5410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5358,7 +5421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5369,7 +5432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -5380,7 +5443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5391,7 +5454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -5402,7 +5465,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -5413,7 +5476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nihir\Desktop\cs590\assignment1\CS555_Final_Project\FinalProject\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDAFDEE-62AA-3142-A7CC-C8ABAE5CDB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071F262-5A25-434D-8C47-DF7080FC8812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1245" windowWidth="15375" windowHeight="7875" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="274">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -867,6 +867,30 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>us13_sibling_spacing()</t>
+  </si>
+  <si>
+    <t>us14_multiple_births()</t>
+  </si>
+  <si>
+    <t>883-918</t>
+  </si>
+  <si>
+    <t>928-969</t>
+  </si>
+  <si>
+    <t>test_us13_sibling_spacing()</t>
+  </si>
+  <si>
+    <t>test_us14_multiple_births()</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>165-171</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1200,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42409</c:v>
@@ -1235,7 +1259,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2216,16 +2240,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2259,7 +2283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2276,7 +2300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2293,7 +2317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2310,7 +2334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2327,7 +2351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2360,16 +2384,16 @@
       <selection activeCell="B22" sqref="B22:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2420,7 +2444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2437,7 +2461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2488,7 +2512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2607,7 +2631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2624,7 +2648,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2692,7 +2716,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2709,7 +2733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2740,7 +2764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2796,7 +2820,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2824,7 +2848,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2852,7 +2876,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2880,7 +2904,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2894,7 +2918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2908,7 +2932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2936,7 +2960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2950,7 +2974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2992,7 +3016,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3029,47 +3053,47 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -3092,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3106,7 +3130,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>32.680851063829785</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
@@ -3185,17 +3209,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42409</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42430</v>
       </c>
@@ -3260,27 +3284,27 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -3388,7 +3412,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -3435,7 +3459,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3443,7 +3467,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3498,7 +3522,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -3545,7 +3569,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3553,7 +3577,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
@@ -3600,7 +3624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3608,7 +3632,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3663,7 +3687,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>109</v>
       </c>
@@ -3710,7 +3734,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3722,7 +3746,7 @@
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3777,7 +3801,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3832,7 +3856,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -3879,40 +3903,40 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
@@ -3942,30 +3966,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="L7" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4059,7 +4083,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4072,7 +4096,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4119,14 +4143,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4151,7 +4175,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4159,7 +4183,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4184,14 +4208,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -4210,20 +4234,42 @@
       <c r="F10">
         <v>45</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="21">
+        <v>35</v>
+      </c>
+      <c r="H10" s="21">
+        <v>45</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K10" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4242,20 +4288,42 @@
       <c r="F12">
         <v>90</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="21">
+        <v>41</v>
+      </c>
+      <c r="H12" s="21">
+        <v>45</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K12" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
@@ -4285,7 +4353,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4297,7 +4365,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -4322,14 +4390,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4354,14 +4422,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>125</v>
       </c>
@@ -4386,25 +4454,25 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4426,7 +4494,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4438,26 +4506,26 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4522,7 +4590,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="F3" s="21"/>
       <c r="K3" s="18"/>
@@ -4532,7 +4600,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4549,7 +4617,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4559,52 +4627,52 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4614,7 +4682,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4624,45 +4692,45 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -4695,26 +4763,26 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4761,7 +4829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4773,7 +4841,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4784,7 +4852,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4794,52 +4862,52 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4849,7 +4917,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4859,45 +4927,45 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4926,17 +4994,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -4950,7 +5018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +5029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -4975,7 +5043,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -4986,7 +5054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5000,7 +5068,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5011,7 +5079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5025,7 +5093,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5036,7 +5104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5047,7 +5115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5058,7 +5126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5072,7 +5140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5083,7 +5151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5094,7 +5162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5105,7 +5173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5116,7 +5184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5127,7 +5195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5138,7 +5206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5149,7 +5217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5160,7 +5228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5171,7 +5239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5182,7 +5250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5193,7 +5261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5204,7 +5272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5215,7 +5283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5226,7 +5294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5237,7 +5305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5248,7 +5316,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5259,7 +5327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5270,7 +5338,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -5281,7 +5349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5292,7 +5360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5303,7 +5371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -5314,7 +5382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -5325,7 +5393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -5336,7 +5404,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -5347,7 +5415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5358,7 +5426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5369,7 +5437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -5380,7 +5448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5391,7 +5459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -5402,7 +5470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -5413,7 +5481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nihir\Desktop\cs590\assignment1\CS555_Final_Project\FinalProject\Excel Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071F262-5A25-434D-8C47-DF7080FC8812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24FCF1-2475-1645-9C4C-4368140639E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1245" windowWidth="15375" windowHeight="7875" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="298">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -891,6 +891,78 @@
   </si>
   <si>
     <t>165-171</t>
+  </si>
+  <si>
+    <t>688-739</t>
+  </si>
+  <si>
+    <t>749-785</t>
+  </si>
+  <si>
+    <t>585-612</t>
+  </si>
+  <si>
+    <t>623-678</t>
+  </si>
+  <si>
+    <t>977-1017</t>
+  </si>
+  <si>
+    <t>1029-1050</t>
+  </si>
+  <si>
+    <t>us21_correctgender_for_role()</t>
+  </si>
+  <si>
+    <t>us17_no_marriage_to_children()</t>
+  </si>
+  <si>
+    <t>us_38_upcomingbirthdays()</t>
+  </si>
+  <si>
+    <t>test_us_38_upcomingbirthdays()</t>
+  </si>
+  <si>
+    <t>test_us17_no_marriage_to_children()</t>
+  </si>
+  <si>
+    <t>test_us21_correctgender_for_role()</t>
+  </si>
+  <si>
+    <t>us_35_recentbirth()</t>
+  </si>
+  <si>
+    <t>test_us_35_recentbirth()</t>
+  </si>
+  <si>
+    <t>us20_aunts_and_uncles()</t>
+  </si>
+  <si>
+    <t>test_us20_aunts_and_uncles()</t>
+  </si>
+  <si>
+    <t>us15_fewer_than_15_siblings()</t>
+  </si>
+  <si>
+    <t>test_us15_fewer_than_15_siblings()</t>
+  </si>
+  <si>
+    <t>208-215</t>
+  </si>
+  <si>
+    <t>119-205</t>
+  </si>
+  <si>
+    <t>141-147</t>
+  </si>
+  <si>
+    <t>149-155</t>
+  </si>
+  <si>
+    <t>117-123</t>
+  </si>
+  <si>
+    <t>125-131</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1117,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,6 +1163,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1200,7 +1273,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42409</c:v>
@@ -1259,7 +1332,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2240,16 +2313,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2283,7 +2356,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2300,7 +2373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2317,7 +2390,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2334,7 +2407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2351,7 +2424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2380,20 +2453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2410,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2427,7 +2500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2444,7 +2517,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2461,7 +2534,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2478,7 +2551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2495,7 +2568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2512,7 +2585,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2529,7 +2602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2546,7 +2619,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2563,7 +2636,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2580,7 +2653,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2597,7 +2670,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2611,10 +2684,10 @@
         <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2628,10 +2701,10 @@
         <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2645,10 +2718,10 @@
         <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2662,10 +2735,10 @@
         <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2679,10 +2752,10 @@
         <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2696,10 +2769,10 @@
         <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2713,10 +2786,10 @@
         <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2730,27 +2803,27 @@
         <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2763,8 +2836,11 @@
       <c r="D22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2777,8 +2853,11 @@
       <c r="D23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2791,8 +2870,11 @@
       <c r="D24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2805,8 +2887,11 @@
       <c r="D25" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2819,8 +2904,11 @@
       <c r="D26" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2833,8 +2921,11 @@
       <c r="D27" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2847,8 +2938,11 @@
       <c r="D28" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2861,8 +2955,11 @@
       <c r="D29" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2875,8 +2972,11 @@
       <c r="D30" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2889,8 +2989,11 @@
       <c r="D31" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2904,7 +3007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2918,7 +3021,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2932,7 +3035,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2946,7 +3049,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2960,7 +3063,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2974,7 +3077,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2988,7 +3091,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3002,7 +3105,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3016,7 +3119,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3053,47 +3156,47 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -3116,7 +3219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3130,7 +3233,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3151,7 +3254,7 @@
         <v>32.680851063829785</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -3168,7 +3271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
@@ -3181,7 +3284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
@@ -3209,17 +3312,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +3342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42409</v>
       </c>
@@ -3250,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42430</v>
       </c>
@@ -3281,30 +3384,30 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3351,7 +3454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3398,7 +3501,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -3412,7 +3515,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -3459,7 +3562,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3467,7 +3570,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -3514,7 +3617,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3522,7 +3625,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -3569,7 +3672,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3577,7 +3680,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
@@ -3624,7 +3727,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3632,7 +3735,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -3679,7 +3782,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3687,7 +3790,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>109</v>
       </c>
@@ -3734,7 +3837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3746,7 +3849,7 @@
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -3793,7 +3896,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3801,7 +3904,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -3848,7 +3951,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3856,7 +3959,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -3903,40 +4006,40 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
@@ -3966,30 +4069,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4083,7 +4186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4096,7 +4199,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4121,9 +4224,10 @@
       <c r="H4" s="21">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="25" t="s">
         <v>205</v>
       </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="17" t="s">
         <v>206</v>
       </c>
@@ -4143,14 +4247,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4169,21 +4275,46 @@
       <c r="F6" s="21">
         <v>45</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="21">
+        <v>51</v>
+      </c>
+      <c r="H6" s="21">
+        <v>55</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J6" s="21"/>
+      <c r="K6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4202,20 +4333,45 @@
       <c r="F8" s="21">
         <v>120</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="21">
+        <v>36</v>
+      </c>
+      <c r="H8" s="21">
+        <v>20</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J8" s="21"/>
+      <c r="K8" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -4240,9 +4396,10 @@
       <c r="H10" s="21">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="25" t="s">
         <v>205</v>
       </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="17" t="s">
         <v>206</v>
       </c>
@@ -4262,14 +4419,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4294,9 +4453,10 @@
       <c r="H12" s="21">
         <v>45</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="25" t="s">
         <v>205</v>
       </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="17" t="s">
         <v>206</v>
       </c>
@@ -4316,14 +4476,16 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
@@ -4342,30 +4504,50 @@
       <c r="F14">
         <v>60</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="21">
+        <v>27</v>
+      </c>
+      <c r="H14" s="21">
+        <v>45</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J14" s="21"/>
+      <c r="K14" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="21"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -4384,20 +4566,45 @@
       <c r="F16">
         <v>70</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7" t="s">
+      <c r="G16" s="21">
+        <v>55</v>
+      </c>
+      <c r="H16" s="21">
+        <v>50</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="21"/>
+      <c r="K16" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4416,22 +4623,47 @@
       <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7" t="s">
+      <c r="G18" s="21">
+        <v>40</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1600</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="21"/>
+      <c r="K18" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>79</v>
@@ -4448,31 +4680,64 @@
       <c r="F20">
         <v>45</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="21">
+        <v>21</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="21"/>
+      <c r="K20" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4503,29 +4768,29 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4572,7 +4837,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4582,7 +4847,15 @@
       <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="21">
+        <v>30</v>
+      </c>
       <c r="K2" s="18"/>
       <c r="L2" s="20"/>
       <c r="M2" s="18"/>
@@ -4590,9 +4863,25 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="F3" s="21"/>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21">
+        <v>35</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="20"/>
       <c r="M3" s="18"/>
@@ -4600,15 +4889,24 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -4617,62 +4915,167 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="L5" s="20"/>
       <c r="M5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4682,7 +5085,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4692,45 +5095,45 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -4763,26 +5166,26 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4829,7 +5232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4841,7 +5244,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4852,7 +5255,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4862,52 +5265,52 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4917,7 +5320,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4927,45 +5330,45 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4994,17 +5397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -5018,7 +5421,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5029,7 +5432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -5043,7 +5446,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -5054,7 +5457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5068,7 +5471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5079,7 +5482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5093,7 +5496,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5104,7 +5507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5115,7 +5518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5126,7 +5529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5140,7 +5543,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5151,7 +5554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5162,7 +5565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5173,7 +5576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5184,7 +5587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5195,7 +5598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5206,7 +5609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5217,7 +5620,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5228,7 +5631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5239,7 +5642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5250,7 +5653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5261,7 +5664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5271,8 +5674,11 @@
       <c r="C23" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5283,7 +5689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5294,7 +5700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5305,7 +5711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5316,7 +5722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5326,8 +5732,11 @@
       <c r="C28" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5338,7 +5747,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -5349,7 +5758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5360,7 +5769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5371,7 +5780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -5382,7 +5791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -5393,7 +5802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -5404,7 +5813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -5414,8 +5823,11 @@
       <c r="C36" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5426,7 +5838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5437,7 +5849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -5447,8 +5859,11 @@
       <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5459,7 +5874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -5470,7 +5885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -5481,7 +5896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24FCF1-2475-1645-9C4C-4368140639E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B51B6-C2B7-1E4A-9813-A975DBB1C829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="297">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -864,9 +864,6 @@
   </si>
   <si>
     <t>235-285</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>us13_sibling_spacing()</t>
@@ -1406,6 +1403,9 @@
                 <c:pt idx="1">
                   <c:v>42430</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42451</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1420,6 +1420,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3153,7 +3156,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3244,14 +3247,14 @@
         <v>30</v>
       </c>
       <c r="E16" s="14">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="F16" s="14">
-        <v>235</v>
+        <v>690</v>
       </c>
       <c r="G16" s="9">
         <f>(E16-E15)/F16*60</f>
-        <v>32.680851063829785</v>
+        <v>32.608695652173914</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3264,11 +3267,15 @@
       <c r="C17" s="14">
         <v>20</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="9" t="e">
+      <c r="E17" s="14">
+        <v>401</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2935</v>
+      </c>
+      <c r="G17" s="9">
         <f>(E17-E16)/F17*60</f>
-        <v>#DIV/0!</v>
+        <v>0.53151618398637146</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3306,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3361,14 +3368,28 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="E3">
-        <v>235</v>
+        <v>690</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>32.680851063829785</v>
+        <v>32.608695652173914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>401</v>
+      </c>
+      <c r="E4">
+        <v>2935</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3405,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4006,6 +4027,16 @@
         <v>249</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <f>SUM(G2:G21)</f>
+        <v>375</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H2:H21)</f>
+        <v>690</v>
+      </c>
+    </row>
     <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
@@ -4069,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J20"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4289,19 +4320,19 @@
         <v>206</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O6" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4347,19 +4378,19 @@
         <v>206</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4404,19 +4435,19 @@
         <v>206</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4461,19 +4492,19 @@
         <v>206</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O12" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4518,19 +4549,19 @@
         <v>206</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4580,19 +4611,19 @@
         <v>206</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4630,26 +4661,26 @@
         <v>1600</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="17" t="s">
         <v>206</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4687,26 +4718,36 @@
         <v>1000</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="17" t="s">
         <v>206</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <f>SUM(G2:G21)</f>
+        <v>401</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H2:H21)</f>
+        <v>2935</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
@@ -5722,7 +5763,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B51B6-C2B7-1E4A-9813-A975DBB1C829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5080A71-69AA-064F-8A9D-AD378CDB8270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -960,6 +960,30 @@
   </si>
   <si>
     <t>125-131</t>
+  </si>
+  <si>
+    <t>796-861</t>
+  </si>
+  <si>
+    <t>us11_no_bigamy()</t>
+  </si>
+  <si>
+    <t>test_us11_no_bigamy()</t>
+  </si>
+  <si>
+    <t> us12_parents_not_too_old()</t>
+  </si>
+  <si>
+    <t>1059-1114</t>
+  </si>
+  <si>
+    <t>test_us12_parents_not_too_old()</t>
+  </si>
+  <si>
+    <t>184-191</t>
+  </si>
+  <si>
+    <t>194-202</t>
   </si>
 </sst>
 </file>
@@ -1281,6 +1305,9 @@
                 <c:pt idx="2">
                   <c:v>42451</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42465</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1298,6 +1325,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,6 +1436,9 @@
                 <c:pt idx="2">
                   <c:v>42451</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42465</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1423,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2976,7 +3012,7 @@
         <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2993,7 +3029,7 @@
         <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -3155,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3282,8 +3318,12 @@
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13">
+        <v>42465</v>
+      </c>
+      <c r="C18" s="14">
+        <v>10</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="9" t="e">
@@ -3313,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3390,6 +3430,18 @@
       </c>
       <c r="E4">
         <v>2935</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>0.53151618398637146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42465</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4808,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4827,7 +4879,7 @@
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4892,17 +4944,35 @@
         <v>217</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F2" s="21">
-        <v>30</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4921,14 +4991,32 @@
         <v>35</v>
       </c>
       <c r="F3" s="21">
-        <v>35</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5105,6 +5193,14 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nihir\Desktop\cs590\assignment1\CS555_Final_Project\FinalProject\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5080A71-69AA-064F-8A9D-AD378CDB8270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7877-9A23-478C-B0A5-CC6C994DF552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="313">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -984,6 +984,30 @@
   </si>
   <si>
     <t>194-202</t>
+  </si>
+  <si>
+    <t>us30_list_living_married()</t>
+  </si>
+  <si>
+    <t>1457-1485</t>
+  </si>
+  <si>
+    <t>test_us30_list_living_married()</t>
+  </si>
+  <si>
+    <t>271-278</t>
+  </si>
+  <si>
+    <t>test_us34_list_living_married()</t>
+  </si>
+  <si>
+    <t>281-289</t>
+  </si>
+  <si>
+    <t>1496-1524</t>
+  </si>
+  <si>
+    <t>us34_list_living_married()</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1318,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42409</c:v>
@@ -1359,7 +1383,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2352,16 +2376,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2395,7 +2419,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2412,7 +2436,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2429,7 +2453,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2463,7 +2487,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2496,16 +2520,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2607,7 +2631,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2624,7 +2648,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2692,7 +2716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2709,7 +2733,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2743,7 +2767,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2760,7 +2784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2777,7 +2801,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2794,7 +2818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2828,7 +2852,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2845,7 +2869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2862,7 +2886,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2879,7 +2903,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2896,7 +2920,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2913,7 +2937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2930,7 +2954,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2947,7 +2971,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2981,7 +3005,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3015,7 +3039,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3032,7 +3056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3060,7 +3084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3088,7 +3112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3102,7 +3126,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3116,7 +3140,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3130,7 +3154,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3158,7 +3182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3195,47 +3219,47 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -3258,7 +3282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3272,7 +3296,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3293,7 +3317,7 @@
         <v>32.608695652173914</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>0.53151618398637146</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
@@ -3331,7 +3355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
@@ -3355,21 +3379,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42409</v>
       </c>
@@ -3400,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42430</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>32.608695652173914</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42451</v>
       </c>
@@ -3436,7 +3460,7 @@
         <v>0.53151618398637146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42465</v>
       </c>
@@ -3460,27 +3484,27 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3551,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -3588,7 +3612,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -3635,7 +3659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3643,7 +3667,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -3690,7 +3714,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3698,7 +3722,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -3745,7 +3769,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3753,7 +3777,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3808,7 +3832,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -3855,7 +3879,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3863,7 +3887,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>109</v>
       </c>
@@ -3910,7 +3934,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3922,7 +3946,7 @@
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -3969,7 +3993,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3977,7 +4001,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -4024,7 +4048,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4032,7 +4056,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -4079,7 +4103,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G22">
         <f>SUM(G2:G21)</f>
         <v>375</v>
@@ -4089,40 +4113,40 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
@@ -4156,26 +4180,26 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +4246,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4269,7 +4293,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4282,7 +4306,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4330,7 +4354,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -4339,7 +4363,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4387,7 +4411,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4397,7 +4421,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4445,7 +4469,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4454,7 +4478,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -4502,7 +4526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4511,7 +4535,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4559,7 +4583,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4568,7 +4592,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
@@ -4616,7 +4640,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4630,7 +4654,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -4678,7 +4702,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4687,7 +4711,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4735,7 +4759,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4744,7 +4768,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -4792,7 +4816,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G22">
         <f>SUM(G2:G21)</f>
         <v>401</v>
@@ -4802,35 +4826,35 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4860,30 +4884,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4930,7 +4954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4974,7 +4998,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -5018,7 +5042,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -5044,7 +5068,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -5069,7 +5093,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -5088,8 +5112,32 @@
       <c r="F6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -5108,8 +5156,32 @@
       <c r="F7">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5129,7 +5201,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -5149,7 +5221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -5169,7 +5241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -5189,30 +5261,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5222,7 +5294,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5232,45 +5304,45 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -5303,26 +5375,26 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5369,7 +5441,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5381,7 +5453,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -5392,7 +5464,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5402,52 +5474,52 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5457,7 +5529,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5467,45 +5539,45 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
@@ -5538,13 +5610,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -5558,7 +5630,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5569,7 +5641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -5583,7 +5655,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -5594,7 +5666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5608,7 +5680,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5619,7 +5691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5633,7 +5705,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5644,7 +5716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5655,7 +5727,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5666,7 +5738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5680,7 +5752,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5691,7 +5763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5702,7 +5774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5713,7 +5785,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5724,7 +5796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5735,7 +5807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5746,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5757,7 +5829,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5768,7 +5840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5779,7 +5851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5790,7 +5862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5801,7 +5873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5815,7 +5887,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5826,7 +5898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5837,7 +5909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5848,7 +5920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5859,7 +5931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5873,7 +5945,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5884,7 +5956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -5895,7 +5967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5906,7 +5978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5917,7 +5989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -5928,7 +6000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -5939,7 +6011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -5950,7 +6022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -5964,7 +6036,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5975,7 +6047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5986,7 +6058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -6000,7 +6072,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -6011,7 +6083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -6022,7 +6094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -6033,7 +6105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nihir\Desktop\cs590\assignment1\CS555_Final_Project\FinalProject\Excel Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruval\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7877-9A23-478C-B0A5-CC6C994DF552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39DCDB4-2A72-4175-9186-04BD5512EDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="321">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1008,6 +1008,30 @@
   </si>
   <si>
     <t>us34_list_living_married()</t>
+  </si>
+  <si>
+    <t>us24_Unique_families_by_spouses()</t>
+  </si>
+  <si>
+    <t>us32_list_multiple_births()</t>
+  </si>
+  <si>
+    <t>1262-1322</t>
+  </si>
+  <si>
+    <t>1215-1252</t>
+  </si>
+  <si>
+    <t>test_us24_Unique_families_by_spouses()</t>
+  </si>
+  <si>
+    <t>test_us32_list_multiple_births()</t>
+  </si>
+  <si>
+    <t>237-243</t>
+  </si>
+  <si>
+    <t>152-158</t>
   </si>
 </sst>
 </file>
@@ -2376,13 +2400,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2516,17 +2540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3001,8 +3025,8 @@
       <c r="D28" t="s">
         <v>183</v>
       </c>
-      <c r="E28" t="s">
-        <v>217</v>
+      <c r="E28" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,8 +3042,8 @@
       <c r="D29" t="s">
         <v>183</v>
       </c>
-      <c r="E29" t="s">
-        <v>217</v>
+      <c r="E29" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,7 +3059,7 @@
       <c r="D30" t="s">
         <v>191</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="21" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3070,7 +3094,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3084,7 +3108,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3112,7 +3136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3153,8 +3177,11 @@
       <c r="D38" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3167,8 +3194,11 @@
       <c r="D39" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3182,7 +3212,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3219,14 +3249,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3383,14 +3413,14 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3484,24 +3514,24 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -3551,7 +3581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3612,7 +3642,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -4177,26 +4207,26 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -4246,7 +4276,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4306,7 +4336,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4603,7 +4633,7 @@
         <v>183</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -4665,7 +4695,7 @@
         <v>183</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>45</v>
@@ -4854,7 +4884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4884,27 +4914,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -4954,7 +4984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4998,7 +5028,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -5068,7 +5098,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -5191,14 +5221,41 @@
       <c r="C8" t="s">
         <v>183</v>
       </c>
-      <c r="D8" t="s">
-        <v>217</v>
+      <c r="D8" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c r="F8">
         <v>67</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -5211,14 +5268,41 @@
       <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="D9" t="s">
-        <v>217</v>
+      <c r="D9" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E9">
         <v>43</v>
       </c>
       <c r="F9">
         <v>80</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -5240,6 +5324,7 @@
       <c r="F10">
         <v>30</v>
       </c>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5267,11 +5352,11 @@
       <c r="C12" s="4"/>
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -5364,6 +5449,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5375,23 +5461,23 @@
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -5441,7 +5527,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5464,7 +5550,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5610,10 +5696,10 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5630,7 +5716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5641,7 +5727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -5655,7 +5741,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -5666,7 +5752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5680,7 +5766,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5691,7 +5777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5705,7 +5791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5716,7 +5802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5727,7 +5813,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5738,7 +5824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5752,7 +5838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5763,7 +5849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5774,7 +5860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5785,7 +5871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5796,7 +5882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5807,7 +5893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5818,7 +5904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5829,7 +5915,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5840,7 +5926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5851,7 +5937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5862,7 +5948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5873,7 +5959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5887,7 +5973,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5898,7 +5984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5909,7 +5995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5920,7 +6006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5931,7 +6017,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5945,7 +6031,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5956,7 +6042,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -5967,7 +6053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5978,7 +6064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5989,7 +6075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -6000,7 +6086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -6011,7 +6097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -6022,7 +6108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -6036,7 +6122,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -6047,7 +6133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -6058,7 +6144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -6072,7 +6158,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -6083,7 +6169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -6094,7 +6180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -6105,7 +6191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruval\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Desktop/Stevens_Sem2/CS_555_AGILE/Sprint3/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39DCDB4-2A72-4175-9186-04BD5512EDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC08FF-D9DD-3540-893F-8BDA35223DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="a0">Sprint3!$O$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="337">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1032,6 +1035,54 @@
   </si>
   <si>
     <t>152-158</t>
+  </si>
+  <si>
+    <t>1127-1205</t>
+  </si>
+  <si>
+    <t>1409-1454</t>
+  </si>
+  <si>
+    <t>1334-1359</t>
+  </si>
+  <si>
+    <t>1372-1399</t>
+  </si>
+  <si>
+    <t>263-269</t>
+  </si>
+  <si>
+    <t>228-235</t>
+  </si>
+  <si>
+    <t>246-252</t>
+  </si>
+  <si>
+    <t>255-261</t>
+  </si>
+  <si>
+    <t>test_us_39_upcominganniversaries()</t>
+  </si>
+  <si>
+    <t>us_39_upcominganniversaries()</t>
+  </si>
+  <si>
+    <t>test_us31_listLivingSingle()</t>
+  </si>
+  <si>
+    <t>test_us_36_recentdeaths()</t>
+  </si>
+  <si>
+    <t>test_us09_birthbeforedeathofparents()</t>
+  </si>
+  <si>
+    <t>us09_birthbeforedeathofparents()</t>
+  </si>
+  <si>
+    <t>us31_listLivingSingle()</t>
+  </si>
+  <si>
+    <t>us_36_recentdeaths()</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1093,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1091,6 +1142,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -1186,7 +1249,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1233,6 +1296,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1342,7 +1409,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42409</c:v>
@@ -1407,7 +1474,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2400,16 +2467,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2426,7 +2493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2443,7 +2510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2460,7 +2527,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2477,7 +2544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2494,7 +2561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2511,7 +2578,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2540,20 +2607,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2587,7 +2654,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2604,7 +2671,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2621,7 +2688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2638,7 +2705,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2655,7 +2722,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2672,7 +2739,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2689,7 +2756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2706,7 +2773,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2723,7 +2790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2740,7 +2807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2757,7 +2824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2774,7 +2841,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2791,7 +2858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2808,7 +2875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2825,7 +2892,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2842,7 +2909,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2859,7 +2926,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2876,7 +2943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2893,7 +2960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2910,7 +2977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2927,7 +2994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2944,7 +3011,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2958,27 +3025,27 @@
         <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2992,10 +3059,10 @@
         <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3009,10 +3076,10 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3029,7 +3096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3046,15 +3113,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -3063,15 +3130,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
         <v>191</v>
@@ -3080,7 +3147,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3093,8 +3160,11 @@
       <c r="D32" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3107,8 +3177,11 @@
       <c r="D33" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3121,22 +3194,28 @@
       <c r="D34" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3149,8 +3228,11 @@
       <c r="D36" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3163,8 +3245,11 @@
       <c r="D37" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3181,7 +3266,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3198,32 +3283,38 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>191</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3245,51 +3336,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -3312,7 +3403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -3326,7 +3417,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3347,7 +3438,7 @@
         <v>32.608695652173914</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>157</v>
       </c>
@@ -3368,7 +3459,7 @@
         <v>0.53151618398637146</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
@@ -3378,14 +3469,18 @@
       <c r="C18" s="14">
         <v>10</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="9" t="e">
+      <c r="E18" s="14">
+        <v>448</v>
+      </c>
+      <c r="F18" s="15">
+        <v>490</v>
+      </c>
+      <c r="G18" s="9">
         <f>(E18-E17)/F18*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.7551020408163263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
@@ -3410,20 +3505,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3443,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42409</v>
       </c>
@@ -3454,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42430</v>
       </c>
@@ -3472,7 +3567,7 @@
         <v>32.608695652173914</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42451</v>
       </c>
@@ -3490,12 +3585,22 @@
         <v>0.53151618398637146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42465</v>
       </c>
       <c r="B5">
         <v>10</v>
+      </c>
+      <c r="D5">
+        <v>448</v>
+      </c>
+      <c r="E5">
+        <v>490</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
+        <v>5.7551020408163263</v>
       </c>
     </row>
   </sheetData>
@@ -3514,27 +3619,27 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3686,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -3628,7 +3733,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -3642,7 +3747,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
@@ -3689,7 +3794,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -3697,7 +3802,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -3744,7 +3849,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3752,7 +3857,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
@@ -3799,7 +3904,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3807,7 +3912,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
@@ -3854,7 +3959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3862,7 +3967,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -3909,7 +4014,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3917,7 +4022,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>109</v>
       </c>
@@ -3964,7 +4069,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3976,7 +4081,7 @@
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -4023,7 +4128,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4031,7 +4136,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -4078,7 +4183,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4086,7 +4191,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4238,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G22">
         <f>SUM(G2:G21)</f>
         <v>375</v>
@@ -4143,40 +4248,40 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
@@ -4207,29 +4312,29 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4276,7 +4381,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -4323,7 +4428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4336,7 +4441,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4384,7 +4489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -4393,7 +4498,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -4404,7 +4509,7 @@
         <v>188</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>45</v>
@@ -4441,7 +4546,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4451,7 +4556,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4462,7 +4567,7 @@
         <v>188</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -4499,7 +4604,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4508,7 +4613,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -4519,7 +4624,7 @@
         <v>182</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E10">
         <v>45</v>
@@ -4556,7 +4661,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4565,7 +4670,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -4576,7 +4681,7 @@
         <v>182</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -4613,7 +4718,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4622,7 +4727,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>121</v>
       </c>
@@ -4670,7 +4775,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4684,7 +4789,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
@@ -4732,7 +4837,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4741,7 +4846,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>123</v>
       </c>
@@ -4752,7 +4857,7 @@
         <v>191</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -4789,7 +4894,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4798,7 +4903,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -4809,7 +4914,7 @@
         <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>80</v>
@@ -4846,7 +4951,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G22">
         <f>SUM(G2:G21)</f>
         <v>401</v>
@@ -4856,35 +4961,35 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
         <v>218</v>
       </c>
@@ -4914,30 +5019,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4984,7 +5089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4994,8 +5099,8 @@
       <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" t="s">
-        <v>217</v>
+      <c r="D2" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5009,6 +5114,9 @@
       <c r="H2">
         <v>90</v>
       </c>
+      <c r="I2" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="K2" s="18" t="s">
         <v>206</v>
       </c>
@@ -5028,7 +5136,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -5038,8 +5146,8 @@
       <c r="C3" t="s">
         <v>177</v>
       </c>
-      <c r="D3" t="s">
-        <v>217</v>
+      <c r="D3" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E3">
         <v>35</v>
@@ -5053,6 +5161,9 @@
       <c r="H3">
         <v>60</v>
       </c>
+      <c r="I3" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="K3" s="18" t="s">
         <v>206</v>
       </c>
@@ -5072,7 +5183,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -5082,8 +5193,8 @@
       <c r="C4" t="s">
         <v>188</v>
       </c>
-      <c r="D4" t="s">
-        <v>217</v>
+      <c r="D4" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -5091,16 +5202,37 @@
       <c r="F4">
         <v>37</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -5108,8 +5240,8 @@
       <c r="C5" t="s">
         <v>188</v>
       </c>
-      <c r="D5" t="s">
-        <v>217</v>
+      <c r="D5" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E5">
         <v>45</v>
@@ -5117,13 +5249,35 @@
       <c r="F5">
         <v>40</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21">
+        <v>60</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -5133,8 +5287,8 @@
       <c r="C6" t="s">
         <v>182</v>
       </c>
-      <c r="D6" t="s">
-        <v>217</v>
+      <c r="D6" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -5148,10 +5302,13 @@
       <c r="H6">
         <v>35</v>
       </c>
+      <c r="I6" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="K6" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="27" t="s">
         <v>305</v>
       </c>
       <c r="M6" s="17" t="s">
@@ -5167,7 +5324,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -5177,8 +5334,8 @@
       <c r="C7" t="s">
         <v>182</v>
       </c>
-      <c r="D7" t="s">
-        <v>217</v>
+      <c r="D7" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E7">
         <v>34</v>
@@ -5192,10 +5349,13 @@
       <c r="H7">
         <v>40</v>
       </c>
+      <c r="I7" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="K7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="27" t="s">
         <v>312</v>
       </c>
       <c r="M7" s="17" t="s">
@@ -5211,7 +5371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5242,7 +5402,7 @@
       <c r="K8" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="27" t="s">
         <v>313</v>
       </c>
       <c r="M8" s="18" t="s">
@@ -5258,7 +5418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -5289,7 +5449,7 @@
       <c r="K9" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="27" t="s">
         <v>314</v>
       </c>
       <c r="M9" s="17" t="s">
@@ -5305,18 +5465,18 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>191</v>
       </c>
-      <c r="D10" t="s">
-        <v>217</v>
+      <c r="D10" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -5324,20 +5484,46 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>191</v>
       </c>
-      <c r="D11" t="s">
-        <v>217</v>
+      <c r="D11" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="E11">
         <v>19</v>
@@ -5345,33 +5531,56 @@
       <c r="F11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C15" s="4"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -5379,7 +5588,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5389,48 +5598,58 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="B28" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5457,30 +5676,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5527,10 +5746,19 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="F2" s="21"/>
       <c r="K2" s="18"/>
       <c r="L2" s="20"/>
@@ -5539,10 +5767,19 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -5550,62 +5787,134 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="L4" s="20"/>
       <c r="M4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5615,7 +5924,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5625,52 +5934,52 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{18DAA8D5-84BA-0E40-A6A5-3E96345CD927}">
       <formula1>"GenerateOutputTest"</formula1>
     </dataValidation>
@@ -5680,8 +5989,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7047A2E0-6B9F-2E4F-A440-7A310039A045}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{92044232-4C77-394F-86A0-C613DE36479E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D1048576" xr:uid="{92044232-4C77-394F-86A0-C613DE36479E}">
       <formula1>"Coding, Waiting, Completed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{097B4D8A-233E-C142-BFE1-DB9A06AB563A}">
+      <formula1>"Pending, Coding, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5693,16 +6005,16 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
@@ -5716,7 +6028,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5727,7 +6039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
@@ -5741,7 +6053,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -5752,7 +6064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5766,7 +6078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5777,7 +6089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5791,7 +6103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5802,7 +6114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5813,7 +6125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5824,7 +6136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5838,7 +6150,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -5849,7 +6161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5860,7 +6172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5871,7 +6183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5882,7 +6194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5893,7 +6205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -5904,7 +6216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5915,7 +6227,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5926,7 +6238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5937,7 +6249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5948,7 +6260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5959,7 +6271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5973,7 +6285,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5984,7 +6296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5995,7 +6307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -6006,7 +6318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -6017,7 +6329,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -6031,7 +6343,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -6042,7 +6354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -6053,7 +6365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -6064,7 +6376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -6075,7 +6387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -6086,7 +6398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -6097,7 +6409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -6108,7 +6420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -6122,7 +6434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -6133,7 +6445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -6144,7 +6456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -6158,7 +6470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -6169,7 +6481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -6180,7 +6492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -6191,7 +6503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>148</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Desktop/Stevens_Sem2/CS_555_AGILE/Sprint3/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC08FF-D9DD-3540-893F-8BDA35223DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E2DB4-7D14-F748-A631-1ECF9E74E8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3413,7 +3413,9 @@
       <c r="C15" s="14">
         <v>40</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
@@ -3449,14 +3451,14 @@
         <v>20</v>
       </c>
       <c r="E17" s="14">
-        <v>401</v>
+        <v>776</v>
       </c>
       <c r="F17" s="15">
         <v>2935</v>
       </c>
       <c r="G17" s="9">
         <f>(E17-E16)/F17*60</f>
-        <v>0.53151618398637146</v>
+        <v>8.1976149914821121</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3470,14 +3472,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="14">
-        <v>448</v>
+        <v>1224</v>
       </c>
       <c r="F18" s="15">
         <v>490</v>
       </c>
       <c r="G18" s="9">
         <f>(E18-E17)/F18*60</f>
-        <v>5.7551020408163263</v>
+        <v>54.857142857142854</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3504,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3545,7 +3547,7 @@
       <c r="B2">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3556,7 +3558,7 @@
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>375</v>
       </c>
       <c r="E3">
@@ -3574,15 +3576,15 @@
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>401</v>
+      <c r="D4" s="14">
+        <v>776</v>
       </c>
       <c r="E4">
         <v>2935</v>
       </c>
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
-        <v>0.53151618398637146</v>
+        <v>8.1976149914821121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3592,15 +3594,15 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>448</v>
+      <c r="D5" s="14">
+        <v>1224</v>
       </c>
       <c r="E5">
         <v>490</v>
       </c>
       <c r="F5" s="9">
         <f>(D5-D4)/E5*60</f>
-        <v>5.7551020408163263</v>
+        <v>54.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -6329,7 +6331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E2DB4-7D14-F748-A631-1ECF9E74E8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9A020-E79D-0949-86FF-560501796A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="345">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1083,6 +1083,30 @@
   </si>
   <si>
     <t>us_36_recentdeaths()</t>
+  </si>
+  <si>
+    <t>us23_unique_name_and_birth_date()</t>
+  </si>
+  <si>
+    <t>us29_list_deceased()</t>
+  </si>
+  <si>
+    <t>291-300</t>
+  </si>
+  <si>
+    <t>303-310</t>
+  </si>
+  <si>
+    <t>test_us29_list_deceased()</t>
+  </si>
+  <si>
+    <t>test_us23_unique_name_and_birth_date()</t>
+  </si>
+  <si>
+    <t>1534-1551</t>
+  </si>
+  <si>
+    <t>1553-1589</t>
   </si>
 </sst>
 </file>
@@ -2607,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E41"/>
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3161,7 +3185,7 @@
         <v>177</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3178,7 +3202,7 @@
         <v>177</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -3506,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5678,8 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5693,11 +5717,11 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5759,15 +5783,41 @@
         <v>177</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -5780,14 +5830,41 @@
         <v>177</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="21">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5804,7 +5881,6 @@
       </c>
       <c r="H4" s="21"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
@@ -5910,6 +5986,14 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -6331,7 +6415,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/FinalProject/Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9A020-E79D-0949-86FF-560501796A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41687E-C4A6-0F45-8827-9A3B2C11CE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5045,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5261,7 +5261,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>188</v>
@@ -5702,7 +5702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6415,7 +6415,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41687E-C4A6-0F45-8827-9A3B2C11CE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92171E-C8DC-274D-BFA1-6E27D35C3D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="345">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,9 +725,6 @@
     <t>test_us06_divorce_b4_death()</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Spending time on writing code and reusing the code</t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t>1553-1589</t>
+  </si>
+  <si>
+    <t>Order sibling by age</t>
   </si>
 </sst>
 </file>
@@ -1447,6 +1447,9 @@
                 <c:pt idx="3">
                   <c:v>42465</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42479</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1467,6 +1470,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,6 +1584,9 @@
                 <c:pt idx="3">
                   <c:v>42465</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42479</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1598,6 +1607,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3219,7 +3231,7 @@
         <v>188</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -3227,16 +3239,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>188</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -3244,16 +3256,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
         <v>182</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -3270,7 +3282,7 @@
         <v>182</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -3287,7 +3299,7 @@
         <v>183</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -3304,7 +3316,7 @@
         <v>183</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -3321,7 +3333,7 @@
         <v>191</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -3338,7 +3350,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3360,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E18"/>
+    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3510,8 +3522,12 @@
       <c r="A19" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13">
+        <v>42479</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="9" t="e">
@@ -3528,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3627,6 +3643,14 @@
       <c r="F5" s="9">
         <f>(D5-D4)/E5*60</f>
         <v>54.857142857142854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42479</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3709,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>15</v>
@@ -3747,7 +3771,7 @@
         <v>207</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
@@ -3808,7 +3832,7 @@
         <v>208</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>209</v>
@@ -3857,22 +3881,22 @@
         <v>205</v>
       </c>
       <c r="K6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>235</v>
-      </c>
       <c r="M6" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3915,19 +3939,19 @@
         <v>206</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3970,19 +3994,19 @@
         <v>206</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O10" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4025,19 +4049,19 @@
         <v>206</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4080,19 +4104,19 @@
         <v>206</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4139,19 +4163,19 @@
         <v>206</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O16" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4194,19 +4218,19 @@
         <v>206</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4249,19 +4273,19 @@
         <v>206</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4289,12 +4313,12 @@
     </row>
     <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
@@ -4304,12 +4328,12 @@
     </row>
     <row r="30" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4466,7 @@
         <v>215</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
@@ -4451,7 +4475,7 @@
         <v>216</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -4500,19 +4524,19 @@
         <v>206</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -4557,19 +4581,19 @@
         <v>206</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O6" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4615,19 +4639,19 @@
         <v>206</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4672,19 +4696,19 @@
         <v>206</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4729,19 +4753,19 @@
         <v>206</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O12" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4786,19 +4810,19 @@
         <v>206</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4848,19 +4872,19 @@
         <v>206</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4905,19 +4929,19 @@
         <v>206</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4962,19 +4986,19 @@
         <v>206</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -5002,12 +5026,12 @@
     </row>
     <row r="26" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14" x14ac:dyDescent="0.15">
@@ -5017,7 +5041,7 @@
     </row>
     <row r="30" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5045,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5147,19 +5171,19 @@
         <v>206</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5194,19 +5218,19 @@
         <v>206</v>
       </c>
       <c r="L3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5241,19 +5265,19 @@
         <v>206</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5288,19 +5312,19 @@
         <v>206</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O5" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -5335,19 +5359,19 @@
         <v>206</v>
       </c>
       <c r="L6" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="O6" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P6" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -5382,19 +5406,19 @@
         <v>206</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>209</v>
       </c>
       <c r="P7" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -5429,19 +5453,19 @@
         <v>206</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -5476,19 +5500,19 @@
         <v>206</v>
       </c>
       <c r="L9" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5523,19 +5547,19 @@
         <v>206</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5570,19 +5594,19 @@
         <v>206</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O11" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -5656,12 +5680,12 @@
     </row>
     <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5671,7 +5695,7 @@
     </row>
     <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5700,10 +5724,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5804,19 +5828,19 @@
         <v>206</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -5851,19 +5875,19 @@
         <v>206</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -5877,39 +5901,92 @@
         <v>188</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="H4" s="21">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="L4" s="20"/>
+      <c r="O4" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21">
+        <v>70</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="21">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -5923,7 +6000,25 @@
         <v>182</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="21">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -5937,7 +6032,22 @@
         <v>183</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,7 +6061,22 @@
         <v>183</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -5965,7 +6090,25 @@
         <v>191</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -5979,7 +6122,25 @@
         <v>191</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -5992,13 +6153,11 @@
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>90</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
@@ -6058,9 +6217,24 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="B30" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6415,7 +6589,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92171E-C8DC-274D-BFA1-6E27D35C3D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CCD27D-439D-9A4B-8EC7-C23FEA518670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="365">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1107,6 +1107,66 @@
   </si>
   <si>
     <t>Order sibling by age</t>
+  </si>
+  <si>
+    <t>1740-1785</t>
+  </si>
+  <si>
+    <t>1643-1730</t>
+  </si>
+  <si>
+    <t>us37_listrecent_survivors()</t>
+  </si>
+  <si>
+    <t>us01_datesBeforeCurrentdate()</t>
+  </si>
+  <si>
+    <t>test_us37_listrecent_survivors()</t>
+  </si>
+  <si>
+    <t>test_us01_datesBeforeCurrentdate()</t>
+  </si>
+  <si>
+    <t>1785-1880</t>
+  </si>
+  <si>
+    <t>1946-1990</t>
+  </si>
+  <si>
+    <t>us28_order_siblings_by_age()</t>
+  </si>
+  <si>
+    <t>us42_reject_illegitimate_dates</t>
+  </si>
+  <si>
+    <t>test_us28_order_siblings_by_age()</t>
+  </si>
+  <si>
+    <t>test_us42_reject_illegitimate_dates</t>
+  </si>
+  <si>
+    <t>1607-1635</t>
+  </si>
+  <si>
+    <t>us25_unique_firstnames_infamilies()</t>
+  </si>
+  <si>
+    <t>test_us25_unique_firstnames_infamilies()</t>
+  </si>
+  <si>
+    <t>345-352</t>
+  </si>
+  <si>
+    <t>322-328</t>
+  </si>
+  <si>
+    <t>338-344</t>
+  </si>
+  <si>
+    <t>330-336</t>
+  </si>
+  <si>
+    <t>313-319</t>
   </si>
 </sst>
 </file>
@@ -5726,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5909,6 +5969,9 @@
       <c r="F4">
         <v>40</v>
       </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
       <c r="H4" s="21">
         <v>55</v>
       </c>
@@ -5918,12 +5981,21 @@
       <c r="K4" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>346</v>
+      </c>
       <c r="O4" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5944,6 +6016,9 @@
       <c r="F5">
         <v>45</v>
       </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
       <c r="H5" s="21">
         <v>70</v>
       </c>
@@ -5953,8 +6028,20 @@
       <c r="K5" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L5" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>345</v>
+      </c>
       <c r="O5" s="18" t="s">
         <v>209</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -5976,6 +6063,9 @@
       <c r="F6">
         <v>50</v>
       </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
       <c r="H6" s="21">
         <v>40</v>
       </c>
@@ -5985,8 +6075,20 @@
       <c r="K6" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L6" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="O6" s="18" t="s">
         <v>209</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -6003,11 +6105,14 @@
         <v>204</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
       <c r="H7" s="21">
         <v>35</v>
       </c>
@@ -6017,8 +6122,20 @@
       <c r="K7" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L7" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="O7" s="18" t="s">
         <v>209</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -6130,6 +6247,9 @@
       <c r="F11">
         <v>34</v>
       </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
       <c r="H11">
         <v>70</v>
       </c>
@@ -6139,8 +6259,20 @@
       <c r="K11" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L11" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>357</v>
+      </c>
       <c r="O11" s="18" t="s">
         <v>209</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -6149,7 +6281,7 @@
       <c r="C12" s="4"/>
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
@@ -6589,7 +6721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CCD27D-439D-9A4B-8EC7-C23FEA518670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75160B33-2A9B-D347-9E59-FF65C6295B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="377">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1136,9 +1136,6 @@
     <t>us28_order_siblings_by_age()</t>
   </si>
   <si>
-    <t>us42_reject_illegitimate_dates</t>
-  </si>
-  <si>
     <t>test_us28_order_siblings_by_age()</t>
   </si>
   <si>
@@ -1167,6 +1164,45 @@
   </si>
   <si>
     <t>313-319</t>
+  </si>
+  <si>
+    <t>1894-1938</t>
+  </si>
+  <si>
+    <t>2005-2050</t>
+  </si>
+  <si>
+    <t>2057-2097</t>
+  </si>
+  <si>
+    <t>us33_List_Orphans()</t>
+  </si>
+  <si>
+    <t>us19_First_cousins_should_not_marry()</t>
+  </si>
+  <si>
+    <t>us41_include_partial_dates()</t>
+  </si>
+  <si>
+    <t>us42_reject_illegitimate_dates()</t>
+  </si>
+  <si>
+    <t>test_us33_List_Orphans()</t>
+  </si>
+  <si>
+    <t>test_us19_First_cousins_should_not_marry()</t>
+  </si>
+  <si>
+    <t>test_us41_include_partial_dates()</t>
+  </si>
+  <si>
+    <t>355-362</t>
+  </si>
+  <si>
+    <t>365-372</t>
+  </si>
+  <si>
+    <t>373-380</t>
   </si>
 </sst>
 </file>
@@ -2703,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3366,11 +3402,11 @@
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
+      <c r="B39" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>183</v>
@@ -3383,11 +3419,11 @@
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
-        <v>127</v>
+      <c r="B40" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
@@ -3433,7 +3469,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3588,11 +3624,15 @@
       <c r="C19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="9" t="e">
+      <c r="E19" s="14">
+        <v>1705</v>
+      </c>
+      <c r="F19" s="15">
+        <v>600</v>
+      </c>
+      <c r="G19" s="9">
         <f>(E19-E18)/F19*60</f>
-        <v>#DIV/0!</v>
+        <v>48.1</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3647,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3711,6 +3751,16 @@
       </c>
       <c r="B6">
         <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1705</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(D6-D5)/E6*60</f>
+        <v>48.1</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5837,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5994,7 +6044,7 @@
         <v>350</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -6041,7 +6091,7 @@
         <v>349</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -6085,10 +6135,10 @@
         <v>209</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -6123,7 +6173,7 @@
         <v>206</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>351</v>
@@ -6132,10 +6182,10 @@
         <v>209</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -6157,22 +6207,40 @@
       <c r="F8">
         <v>45</v>
       </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8" s="21">
+        <v>50</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>205</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L8" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>364</v>
+      </c>
       <c r="O8" s="18" t="s">
         <v>209</v>
       </c>
+      <c r="P8" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="A9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>183</v>
@@ -6186,22 +6254,40 @@
       <c r="F9">
         <v>55</v>
       </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9" s="21">
+        <v>70</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>205</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L9" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>365</v>
+      </c>
       <c r="O9" s="18" t="s">
         <v>209</v>
       </c>
+      <c r="P9" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>127</v>
+      <c r="A10" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>191</v>
@@ -6215,6 +6301,9 @@
       <c r="F10">
         <v>43</v>
       </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
       <c r="H10">
         <v>120</v>
       </c>
@@ -6224,8 +6313,20 @@
       <c r="K10" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="L10" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>366</v>
+      </c>
       <c r="O10" s="18" t="s">
         <v>209</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -6260,19 +6361,19 @@
         <v>206</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O11" s="18" t="s">
         <v>209</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -6281,11 +6382,11 @@
       <c r="C12" s="4"/>
       <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -6396,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6721,7 +6822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>133</v>
       </c>

--- a/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/FinalProject/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/FinalProject/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75160B33-2A9B-D347-9E59-FF65C6295B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93831BE-E9E0-D94E-98FE-6AD9AFB5E956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,9 +1181,6 @@
     <t>us19_First_cousins_should_not_marry()</t>
   </si>
   <si>
-    <t>us41_include_partial_dates()</t>
-  </si>
-  <si>
     <t>us42_reject_illegitimate_dates()</t>
   </si>
   <si>
@@ -1193,9 +1190,6 @@
     <t>test_us19_First_cousins_should_not_marry()</t>
   </si>
   <si>
-    <t>test_us41_include_partial_dates()</t>
-  </si>
-  <si>
     <t>355-362</t>
   </si>
   <si>
@@ -1203,6 +1197,12 @@
   </si>
   <si>
     <t>373-380</t>
+  </si>
+  <si>
+    <t>us26_corresponding_entries()</t>
+  </si>
+  <si>
+    <t>test_us26_corresponding_entries()</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3420,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
@@ -5836,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6173,7 +6173,7 @@
         <v>206</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>351</v>
@@ -6229,10 +6229,10 @@
         <v>209</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -6276,18 +6276,18 @@
         <v>209</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
+        <v>132</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>191</v>
@@ -6314,7 +6314,7 @@
         <v>206</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>366</v>
@@ -6323,10 +6323,10 @@
         <v>209</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -6497,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
